--- a/cp1/terpylo_dudchenko_fb-06_cp1/crossed_bigrams_space(text_with_space).xlsx
+++ b/cp1/terpylo_dudchenko_fb-06_cp1/crossed_bigrams_space(text_with_space).xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.000787358726077389</v>
+        <v>0.001574717452154778</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.972291094853769E-05</v>
+        <v>0.0001394458218970754</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0002023664976311216</v>
+        <v>0.0004047329952622432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0006547151393948051</v>
+        <v>0.00130943027878961</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.004144261804428936</v>
+        <v>0.008288523608857871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.700558803622871E-06</v>
+        <v>3.401117607245741E-06</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -513,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.00055098105237381</v>
+        <v>0.00110196210474762</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.001765180038160539</v>
+        <v>0.003530360076321079</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.672849898476639E-05</v>
+        <v>0.0001734569979695328</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0004982637294615011</v>
+        <v>0.0009965274589230021</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -553,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.911285248332602E-05</v>
+        <v>7.822570496665205E-05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -561,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.001576418010958401</v>
+        <v>0.003152836021916802</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -569,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01008261314668</v>
+        <v>0.02016522629336</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -577,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.001416565483417851</v>
+        <v>0.002833130966835702</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.00598936810635975</v>
+        <v>0.0119787362127195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.0007193363739324742</v>
+        <v>0.001438672747864948</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -601,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01210967924059846</v>
+        <v>0.02421935848119692</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.001207396750572238</v>
+        <v>0.002414793501144476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -617,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.360447042898296E-05</v>
+        <v>2.720894085796593E-05</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -633,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.700558803622871E-06</v>
+        <v>3.401117607245741E-06</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -649,7 +649,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.0001122368810391095</v>
+        <v>0.0002244737620782189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -665,7 +665,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.720894085796593E-05</v>
+        <v>5.441788171593186E-05</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -673,7 +673,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0003622190251716714</v>
+        <v>0.0007244380503433429</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -681,7 +681,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.700558803622871E-06</v>
+        <v>3.401117607245741E-06</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -689,7 +689,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.01141074957230946</v>
+        <v>0.02282149914461892</v>
       </c>
     </row>
   </sheetData>
